--- a/biology/Botanique/Psiloxylaceae/Psiloxylaceae.xlsx
+++ b/biology/Botanique/Psiloxylaceae/Psiloxylaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la classification phylogénétique APG (1998)[1] et classification phylogénétique APG II (2003)[2], les Psiloxylacées sont une famille de plantes dicotylédones qui comprend une espèce Psiloxylon mauritianum. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la classification phylogénétique APG (1998) et classification phylogénétique APG II (2003), les Psiloxylacées sont une famille de plantes dicotylédones qui comprend une espèce Psiloxylon mauritianum. 
 Ce sont des arbres, producteurs d'huiles essentielles, à feuilles alternes, des régions tropicales, originaires des Mascareignes.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Psiloxylon, construit à partir des mots grecs ψιλοσ / psilos, « nu ; dénudé », et ξυλον / xylon, bois[3], littéralement « Bois nu », en référence à l'aspect de son écorce. Le même sens est porté par l'appellation vernaculaire « Bois sans écorce ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Psiloxylon, construit à partir des mots grecs ψιλοσ / psilos, « nu ; dénudé », et ξυλον / xylon, bois, littéralement « Bois nu », en référence à l'aspect de son écorce. Le même sens est porté par l'appellation vernaculaire « Bois sans écorce ».
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[4] cette espèce est placée parmi les Myrtacées.
-En classification phylogénétique APG III (2009)[5] cette famille est invalide ; cette espèce est incorporée dans la famille Myrtaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette espèce est placée parmi les Myrtacées.
+En classification phylogénétique APG III (2009) cette famille est invalide ; cette espèce est incorporée dans la famille Myrtaceae.
 </t>
         </is>
       </c>
